--- a/Api.ManagerGift/DownloadWordExcel/Báo cáo điều chuyển ngang 2020.xlsx
+++ b/Api.ManagerGift/DownloadWordExcel/Báo cáo điều chuyển ngang 2020.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>BÁO CÁO QUÀ TẶNG ĐIỀU CHUYỂN NGANG</t>
   </si>
   <si>
-    <t>Từ ngày 2020-03-29, Đến ngày 2020-04-22</t>
+    <t>Từ ngày 2010-06-05, Đến ngày 2020-05-27</t>
   </si>
   <si>
     <t>STT</t>
@@ -60,25 +60,31 @@
     <t>1</t>
   </si>
   <si>
-    <t>Ngọc Trinh</t>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
-  <si>
-    <t>Combo Vip</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>22-04-2020</t>
+    <t>Quà tặng hiện vật - Điện thoại iphone - Iphone 6 plus</t>
+  </si>
+  <si>
+    <t>iphone6plus</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Cái</t>
+  </si>
+  <si>
+    <t>15,000,000</t>
+  </si>
+  <si>
+    <t>45,000,000</t>
+  </si>
+  <si>
+    <t>25-05-2020</t>
   </si>
   <si>
     <t>P. Quản lý bán hàng</t>
   </si>
   <si>
-    <t>CN Sài Gòn</t>
+    <t>HN 1</t>
   </si>
   <si>
     <t/>
@@ -87,25 +93,22 @@
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Quyen2</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>cân</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>CN Hà Nội</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>đồ sắt - bát sứ - Gốm Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>GVP</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>80,000,000</t>
+  </si>
+  <si>
+    <t>160,000,000</t>
+  </si>
+  <si>
+    <t>PGD Long Hựu</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2018 Aspose Pty Ltd.</t>
@@ -684,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AF528D-71AB-4BC7-9A2D-A451951AFBDC}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="E16" sqref="E16"/>
@@ -792,152 +795,82 @@
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="7" s="2" customFormat="1" ht="15.75"/>
+    <row r="8" spans="1:2" s="2" customFormat="1" ht="15.75">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="15.75">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="15.75">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="15.75"/>
-    <row r="10" spans="1:2" s="2" customFormat="1" ht="15.75">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="15.75">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="15.75"/>
+    <row r="10" s="2" customFormat="1" ht="15.75"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
@@ -958,7 +891,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
